--- a/public/data/yield_loss/yield_table_south_sudan.xlsx
+++ b/public/data/yield_loss/yield_table_south_sudan.xlsx
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>678.23</v>
+        <v>678.09</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1465,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2788.46</v>
+        <v>2152.21</v>
       </c>
       <c r="G4" t="n">
         <v>2306.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2791.19</v>
+        <v>2680.27</v>
       </c>
       <c r="I4" t="n">
         <v>1.21</v>
@@ -1480,10 +1480,10 @@
         <v>26.58</v>
       </c>
       <c r="K4" t="n">
-        <v>406.46</v>
+        <v>389.48</v>
       </c>
       <c r="L4" t="n">
-        <v>4147.22</v>
+        <v>2962.12</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>1624.19</v>
       </c>
       <c r="O4" t="n">
-        <v>2.26</v>
+        <v>2.23</v>
       </c>
       <c r="P4" t="n">
         <v>263.57</v>
@@ -1510,7 +1510,7 @@
         <v>3608.46</v>
       </c>
       <c r="U4" t="n">
-        <v>19.17</v>
+        <v>13.87</v>
       </c>
       <c r="V4" t="n">
         <v>22.45</v>
@@ -4585,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>381.71</v>
+        <v>379.98</v>
       </c>
       <c r="G43" t="n">
         <v>5.84</v>
       </c>
       <c r="H43" t="n">
-        <v>42.99</v>
+        <v>42.94</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>1.83</v>
       </c>
       <c r="K43" t="n">
-        <v>74.17</v>
+        <v>74.08</v>
       </c>
       <c r="L43" t="n">
-        <v>3031.12</v>
+        <v>3020.23</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4665,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>111.66</v>
+        <v>110.27</v>
       </c>
       <c r="G44" t="n">
         <v>1.57</v>
       </c>
       <c r="H44" t="n">
-        <v>239.45</v>
+        <v>239.14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>45.65</v>
+        <v>45.18</v>
       </c>
       <c r="L44" t="n">
-        <v>1894.7</v>
+        <v>1864.23</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>110.49</v>
+        <v>110.01</v>
       </c>
       <c r="G45" t="n">
         <v>1.22</v>
       </c>
       <c r="H45" t="n">
-        <v>12.39</v>
+        <v>12.33</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4760,10 +4760,10 @@
         <v>0.08</v>
       </c>
       <c r="K45" t="n">
-        <v>43.34</v>
+        <v>43.24</v>
       </c>
       <c r="L45" t="n">
-        <v>1654.89</v>
+        <v>1645.05</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -4825,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>166.37</v>
+        <v>165.99</v>
       </c>
       <c r="G46" t="n">
         <v>1.83</v>
       </c>
       <c r="H46" t="n">
-        <v>8.74</v>
+        <v>8.71</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4840,10 +4840,10 @@
         <v>0.31</v>
       </c>
       <c r="K46" t="n">
-        <v>50.81</v>
+        <v>50.72</v>
       </c>
       <c r="L46" t="n">
-        <v>1990.77</v>
+        <v>1984.37</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
